--- a/data_cv_shiny.xlsx
+++ b/data_cv_shiny.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linae\Shiny_resume_11_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linae\Projects_data\Shiny_resume_11_2023\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B54C6A4-1065-4233-BF98-2FCEA787CFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46168682-FA2D-40E6-9C80-55580C184ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67B88574-F95D-47EC-AD54-FAA9237854CD}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t xml:space="preserve"> J'ai réalisé le parcours Anglais Européen et la spécialité Sciences Economiques Approfondies.</t>
   </si>
   <si>
-    <t>Je suis classée 3ème de ma promotion.</t>
-  </si>
-  <si>
     <t>En parallèle, je suis professeur particulier de français et mathématiques au sein de l'entreprise Kangourou Kids.</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t xml:space="preserve">J'exerce la fonction d'Attachée Territoriale chargée des relations partenariales au Département du Rhône. </t>
+  </si>
+  <si>
+    <t>Les classes préparatoires économiques et commerciales préparent aux concours des écoles supérieures de management, de commerce et de gestion. L'enseignement dispensé offre une formation philosophique, littéraire et linguistique, mais aussi économique et mathématique, de haut niveau. Je suis classée 3ème de ma promotion.</t>
   </si>
 </sst>
 </file>
@@ -640,9 +640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26330B0C-7912-4120-A651-1AA192F9687D}">
   <dimension ref="A1:W109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P108" sqref="P108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +728,7 @@
         <v>42186</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -795,10 +795,10 @@
         <v>42217</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -862,10 +862,10 @@
         <v>42248</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -929,10 +929,10 @@
         <v>42278</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -996,10 +996,10 @@
         <v>42309</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -1063,10 +1063,10 @@
         <v>42339</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -1130,10 +1130,10 @@
         <v>42370</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -1197,10 +1197,10 @@
         <v>42401</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1264,10 +1264,10 @@
         <v>42430</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -1331,10 +1331,10 @@
         <v>42461</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -1398,10 +1398,10 @@
         <v>42491</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1465,10 +1465,10 @@
         <v>42522</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -1532,10 +1532,10 @@
         <v>42552</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -1599,10 +1599,10 @@
         <v>42583</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1666,10 +1666,10 @@
         <v>42614</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1737,10 +1737,10 @@
         <v>42644</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1808,10 +1808,10 @@
         <v>42675</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1879,10 +1879,10 @@
         <v>42705</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -1950,10 +1950,10 @@
         <v>42736</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -2021,10 +2021,10 @@
         <v>42767</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -2092,10 +2092,10 @@
         <v>42795</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -2163,10 +2163,10 @@
         <v>42826</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -2234,10 +2234,10 @@
         <v>42856</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -2305,10 +2305,10 @@
         <v>42887</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -2376,10 +2376,10 @@
         <v>42917</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -2447,10 +2447,10 @@
         <v>42948</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -2518,13 +2518,13 @@
         <v>42979</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28"/>
       <c r="F28">
@@ -2587,13 +2587,13 @@
         <v>43009</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29"/>
       <c r="F29">
@@ -2656,13 +2656,13 @@
         <v>43040</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30"/>
       <c r="F30">
@@ -2725,13 +2725,13 @@
         <v>43070</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31"/>
       <c r="F31">
@@ -2794,13 +2794,13 @@
         <v>43101</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32"/>
       <c r="F32">
@@ -2863,13 +2863,13 @@
         <v>43132</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33"/>
       <c r="F33">
@@ -2932,13 +2932,13 @@
         <v>43160</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34"/>
       <c r="F34">
@@ -3001,13 +3001,13 @@
         <v>43191</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35"/>
       <c r="F35">
@@ -3070,13 +3070,13 @@
         <v>43221</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36"/>
       <c r="F36">
@@ -3139,13 +3139,13 @@
         <v>43252</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37"/>
       <c r="F37">
@@ -3208,13 +3208,13 @@
         <v>43282</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38"/>
       <c r="F38">
@@ -3277,13 +3277,13 @@
         <v>43313</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39"/>
       <c r="F39">
@@ -3346,13 +3346,13 @@
         <v>43344</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -3417,13 +3417,13 @@
         <v>43374</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -3488,13 +3488,13 @@
         <v>43405</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -3559,13 +3559,13 @@
         <v>43435</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -3630,13 +3630,13 @@
         <v>43466</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -3701,13 +3701,13 @@
         <v>43497</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -3772,13 +3772,13 @@
         <v>43525</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -3843,16 +3843,16 @@
         <v>43556</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">+I+F47:H88</f>
@@ -3915,16 +3915,16 @@
         <v>43586</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3986,16 +3986,16 @@
         <v>43617</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4057,16 +4057,16 @@
         <v>43647</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4128,16 +4128,16 @@
         <v>43678</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4199,16 +4199,16 @@
         <v>43709</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>43739</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -4337,10 +4337,10 @@
         <v>43770</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -4404,10 +4404,10 @@
         <v>43800</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -4471,16 +4471,16 @@
         <v>43831</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4542,16 +4542,16 @@
         <v>43862</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4613,16 +4613,16 @@
         <v>43891</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -4684,16 +4684,16 @@
         <v>43922</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4755,16 +4755,16 @@
         <v>43952</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4826,16 +4826,16 @@
         <v>43983</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4897,16 +4897,16 @@
         <v>44013</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4968,16 +4968,16 @@
         <v>44044</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5039,16 +5039,16 @@
         <v>44075</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5110,10 +5110,10 @@
         <v>44105</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -5177,10 +5177,10 @@
         <v>44136</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -5244,10 +5244,10 @@
         <v>44166</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
@@ -5311,10 +5311,10 @@
         <v>44197</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -5378,10 +5378,10 @@
         <v>44228</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -5445,10 +5445,10 @@
         <v>44256</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -5512,10 +5512,10 @@
         <v>44287</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -5579,10 +5579,10 @@
         <v>44317</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -5646,10 +5646,10 @@
         <v>44348</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -5713,10 +5713,10 @@
         <v>44378</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -5780,10 +5780,10 @@
         <v>44409</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -5847,10 +5847,10 @@
         <v>44440</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -5914,10 +5914,10 @@
         <v>44470</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -5981,10 +5981,10 @@
         <v>44501</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
@@ -6048,10 +6048,10 @@
         <v>44531</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -6115,10 +6115,10 @@
         <v>44562</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
@@ -6182,10 +6182,10 @@
         <v>44593</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
@@ -6249,10 +6249,10 @@
         <v>44621</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
@@ -6316,10 +6316,10 @@
         <v>44652</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -6383,10 +6383,10 @@
         <v>44682</v>
       </c>
       <c r="B84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" t="s">
         <v>35</v>
-      </c>
-      <c r="C84" t="s">
-        <v>36</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
@@ -6450,10 +6450,10 @@
         <v>44713</v>
       </c>
       <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
         <v>35</v>
-      </c>
-      <c r="C85" t="s">
-        <v>36</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -6517,10 +6517,10 @@
         <v>44743</v>
       </c>
       <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
         <v>35</v>
-      </c>
-      <c r="C86" t="s">
-        <v>36</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
@@ -6584,10 +6584,10 @@
         <v>44774</v>
       </c>
       <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s">
         <v>35</v>
-      </c>
-      <c r="C87" t="s">
-        <v>36</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -6651,10 +6651,10 @@
         <v>44805</v>
       </c>
       <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
         <v>35</v>
-      </c>
-      <c r="C88" t="s">
-        <v>36</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
@@ -6718,16 +6718,16 @@
         <v>44835</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" t="s">
         <v>43</v>
-      </c>
-      <c r="D89" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" t="s">
-        <v>44</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6789,16 +6789,16 @@
         <v>44866</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" t="s">
         <v>43</v>
-      </c>
-      <c r="D90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E90" t="s">
-        <v>44</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6860,16 +6860,16 @@
         <v>44896</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" t="s">
         <v>43</v>
-      </c>
-      <c r="D91" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" t="s">
-        <v>44</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6931,16 +6931,16 @@
         <v>44927</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" t="s">
         <v>43</v>
-      </c>
-      <c r="D92" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" t="s">
-        <v>44</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -7002,16 +7002,16 @@
         <v>44958</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" t="s">
         <v>43</v>
-      </c>
-      <c r="D93" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" t="s">
-        <v>44</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7073,16 +7073,16 @@
         <v>44986</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C94" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" t="s">
         <v>43</v>
-      </c>
-      <c r="D94" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" t="s">
-        <v>44</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7144,16 +7144,16 @@
         <v>45017</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" t="s">
         <v>43</v>
-      </c>
-      <c r="D95" t="s">
-        <v>41</v>
-      </c>
-      <c r="E95" t="s">
-        <v>44</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7215,16 +7215,16 @@
         <v>45047</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" t="s">
         <v>43</v>
-      </c>
-      <c r="D96" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" t="s">
-        <v>44</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7286,16 +7286,16 @@
         <v>45078</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" t="s">
         <v>43</v>
-      </c>
-      <c r="D97" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" t="s">
-        <v>44</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7357,16 +7357,16 @@
         <v>45108</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" t="s">
         <v>43</v>
-      </c>
-      <c r="D98" t="s">
-        <v>41</v>
-      </c>
-      <c r="E98" t="s">
-        <v>44</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7428,16 +7428,16 @@
         <v>45139</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" t="s">
+        <v>40</v>
+      </c>
+      <c r="E99" t="s">
         <v>43</v>
-      </c>
-      <c r="D99" t="s">
-        <v>41</v>
-      </c>
-      <c r="E99" t="s">
-        <v>44</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7499,16 +7499,16 @@
         <v>45170</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" t="s">
         <v>43</v>
-      </c>
-      <c r="D100" t="s">
-        <v>41</v>
-      </c>
-      <c r="E100" t="s">
-        <v>44</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7570,16 +7570,16 @@
         <v>45200</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" t="s">
         <v>43</v>
-      </c>
-      <c r="D101" t="s">
-        <v>41</v>
-      </c>
-      <c r="E101" t="s">
-        <v>44</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7641,16 +7641,16 @@
         <v>45231</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C102" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" t="s">
         <v>43</v>
-      </c>
-      <c r="D102" t="s">
-        <v>41</v>
-      </c>
-      <c r="E102" t="s">
-        <v>44</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7712,16 +7712,16 @@
         <v>45261</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103" t="s">
         <v>43</v>
-      </c>
-      <c r="D103" t="s">
-        <v>41</v>
-      </c>
-      <c r="E103" t="s">
-        <v>44</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7783,16 +7783,16 @@
         <v>45292</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" t="s">
+        <v>40</v>
+      </c>
+      <c r="E104" t="s">
         <v>43</v>
-      </c>
-      <c r="D104" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" t="s">
-        <v>44</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7854,16 +7854,16 @@
         <v>45323</v>
       </c>
       <c r="B105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" t="s">
         <v>43</v>
-      </c>
-      <c r="D105" t="s">
-        <v>41</v>
-      </c>
-      <c r="E105" t="s">
-        <v>44</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7925,16 +7925,16 @@
         <v>45352</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106" t="s">
         <v>43</v>
-      </c>
-      <c r="D106" t="s">
-        <v>41</v>
-      </c>
-      <c r="E106" t="s">
-        <v>44</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7996,16 +7996,16 @@
         <v>45383</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C107" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" t="s">
         <v>43</v>
-      </c>
-      <c r="D107" t="s">
-        <v>41</v>
-      </c>
-      <c r="E107" t="s">
-        <v>44</v>
       </c>
       <c r="F107">
         <v>0</v>

--- a/data_cv_shiny.xlsx
+++ b/data_cv_shiny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linae\Projects_data\Shiny_resume_11_2023\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46168682-FA2D-40E6-9C80-55580C184ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B62AB-3163-48B2-AA9C-E099459FA11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67B88574-F95D-47EC-AD54-FAA9237854CD}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>La Nef est une banque éthique coopérative située à Vaulx-en-Velin. Je suis responsable du développement de Zeste, une plateforme de finance participative. Je crée de nouvelles fonctionnalités: base de connaissance et outils en ligne, tableau de bord de suivi clientèle / prospects. Par ailleurs j'accompagne les porteurs de projet et développe les partenariats de Zeste.</t>
   </si>
   <si>
-    <t>Je suis Data Scientist et Développeuse R Shiny chez Enoptea, une entreprise innovante dans le secteur de l'énergie.</t>
-  </si>
-  <si>
     <t>J'obtiens mon baccalauréat Économique et Social au Lycée Blaise Pascal à Charbonnières-les-Bains, avec la mention Très Bien et les Félicitations du Jury.</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>Les classes préparatoires économiques et commerciales préparent aux concours des écoles supérieures de management, de commerce et de gestion. L'enseignement dispensé offre une formation philosophique, littéraire et linguistique, mais aussi économique et mathématique, de haut niveau. Je suis classée 3ème de ma promotion.</t>
+  </si>
+  <si>
+    <t>Je suis Data Scientist au Pôle R&amp;D d'Enoptea, une entreprise innovante dans le secteur de l'énergie.</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
   <dimension ref="A1:W109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +728,7 @@
         <v>42186</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -795,10 +795,10 @@
         <v>42217</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -862,10 +862,10 @@
         <v>42248</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -929,10 +929,10 @@
         <v>42278</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -996,10 +996,10 @@
         <v>42309</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -1063,10 +1063,10 @@
         <v>42339</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -1130,10 +1130,10 @@
         <v>42370</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -1197,10 +1197,10 @@
         <v>42401</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1264,10 +1264,10 @@
         <v>42430</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -1331,10 +1331,10 @@
         <v>42461</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -1398,10 +1398,10 @@
         <v>42491</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1465,10 +1465,10 @@
         <v>42522</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -1532,10 +1532,10 @@
         <v>42552</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -1599,10 +1599,10 @@
         <v>42583</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1666,7 +1666,7 @@
         <v>42614</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -1737,7 +1737,7 @@
         <v>42644</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -1808,7 +1808,7 @@
         <v>42675</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -1879,7 +1879,7 @@
         <v>42705</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -1950,7 +1950,7 @@
         <v>42736</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -2021,7 +2021,7 @@
         <v>42767</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -2092,7 +2092,7 @@
         <v>42795</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -2163,7 +2163,7 @@
         <v>42826</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -2234,7 +2234,7 @@
         <v>42856</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2305,7 +2305,7 @@
         <v>42887</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -2376,7 +2376,7 @@
         <v>42917</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -2447,7 +2447,7 @@
         <v>42948</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -2518,7 +2518,7 @@
         <v>42979</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -2587,7 +2587,7 @@
         <v>43009</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -2656,7 +2656,7 @@
         <v>43040</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -2725,7 +2725,7 @@
         <v>43070</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -2794,7 +2794,7 @@
         <v>43101</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -2863,7 +2863,7 @@
         <v>43132</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -2932,7 +2932,7 @@
         <v>43160</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -3001,7 +3001,7 @@
         <v>43191</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3070,7 +3070,7 @@
         <v>43221</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -3139,7 +3139,7 @@
         <v>43252</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -3208,7 +3208,7 @@
         <v>43282</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -3277,7 +3277,7 @@
         <v>43313</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
@@ -3346,7 +3346,7 @@
         <v>43344</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
@@ -3417,7 +3417,7 @@
         <v>43374</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
@@ -3488,7 +3488,7 @@
         <v>43405</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -3559,7 +3559,7 @@
         <v>43435</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
@@ -3630,7 +3630,7 @@
         <v>43466</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
@@ -3701,7 +3701,7 @@
         <v>43497</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
@@ -3772,7 +3772,7 @@
         <v>43525</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>38</v>
@@ -3849,7 +3849,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s">
         <v>41</v>
@@ -3921,7 +3921,7 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
         <v>41</v>
@@ -3992,7 +3992,7 @@
         <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
         <v>41</v>
@@ -4063,7 +4063,7 @@
         <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
         <v>41</v>
@@ -4134,7 +4134,7 @@
         <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E51" t="s">
         <v>41</v>
@@ -4205,7 +4205,7 @@
         <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52" t="s">
         <v>41</v>
@@ -4270,7 +4270,7 @@
         <v>43739</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
         <v>39</v>
@@ -4337,7 +4337,7 @@
         <v>43770</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>39</v>
@@ -4404,7 +4404,7 @@
         <v>43800</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
         <v>39</v>
@@ -4477,7 +4477,7 @@
         <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
         <v>39</v>
@@ -4548,7 +4548,7 @@
         <v>45</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
         <v>39</v>
@@ -4619,7 +4619,7 @@
         <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s">
         <v>39</v>
@@ -4690,7 +4690,7 @@
         <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
         <v>39</v>
@@ -4761,7 +4761,7 @@
         <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
         <v>39</v>
@@ -4832,7 +4832,7 @@
         <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" t="s">
         <v>39</v>
@@ -4903,7 +4903,7 @@
         <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62" t="s">
         <v>39</v>
@@ -4974,7 +4974,7 @@
         <v>47</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E63" t="s">
         <v>39</v>
@@ -5045,7 +5045,7 @@
         <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
         <v>39</v>
@@ -5579,7 +5579,7 @@
         <v>44317</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" t="s">
         <v>44</v>
@@ -5646,7 +5646,7 @@
         <v>44348</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
         <v>44</v>
@@ -5713,7 +5713,7 @@
         <v>44378</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
         <v>44</v>
@@ -5780,7 +5780,7 @@
         <v>44409</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
         <v>44</v>
@@ -5847,7 +5847,7 @@
         <v>44440</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
         <v>44</v>
@@ -5914,7 +5914,7 @@
         <v>44470</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
         <v>44</v>
@@ -5981,7 +5981,7 @@
         <v>44501</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
         <v>44</v>
@@ -6048,7 +6048,7 @@
         <v>44531</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
         <v>44</v>
@@ -6115,7 +6115,7 @@
         <v>44562</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
         <v>44</v>
@@ -6182,7 +6182,7 @@
         <v>44593</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
         <v>44</v>
@@ -6249,7 +6249,7 @@
         <v>44621</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
         <v>44</v>
@@ -6316,7 +6316,7 @@
         <v>44652</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
         <v>44</v>
@@ -6718,7 +6718,7 @@
         <v>44835</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
         <v>42</v>
@@ -6789,7 +6789,7 @@
         <v>44866</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
         <v>42</v>
@@ -6860,7 +6860,7 @@
         <v>44896</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
         <v>42</v>
@@ -6931,7 +6931,7 @@
         <v>44927</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
         <v>42</v>
@@ -7002,7 +7002,7 @@
         <v>44958</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
         <v>42</v>
@@ -7073,7 +7073,7 @@
         <v>44986</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
         <v>42</v>
@@ -7144,7 +7144,7 @@
         <v>45017</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C95" t="s">
         <v>42</v>
@@ -7215,7 +7215,7 @@
         <v>45047</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C96" t="s">
         <v>42</v>
@@ -7286,7 +7286,7 @@
         <v>45078</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C97" t="s">
         <v>42</v>
@@ -7357,7 +7357,7 @@
         <v>45108</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
         <v>42</v>
@@ -7428,7 +7428,7 @@
         <v>45139</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
         <v>42</v>
@@ -7499,7 +7499,7 @@
         <v>45170</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
         <v>42</v>
@@ -7570,7 +7570,7 @@
         <v>45200</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
         <v>42</v>
@@ -7641,7 +7641,7 @@
         <v>45231</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C102" t="s">
         <v>42</v>
@@ -7712,7 +7712,7 @@
         <v>45261</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C103" t="s">
         <v>42</v>
@@ -7783,7 +7783,7 @@
         <v>45292</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
         <v>42</v>
@@ -7854,7 +7854,7 @@
         <v>45323</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
         <v>42</v>
@@ -7925,7 +7925,7 @@
         <v>45352</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C106" t="s">
         <v>42</v>
@@ -7996,7 +7996,7 @@
         <v>45383</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C107" t="s">
         <v>42</v>

--- a/data_cv_shiny.xlsx
+++ b/data_cv_shiny.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linae\Projects_data\Shiny_resume_11_2023\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286B62AB-3163-48B2-AA9C-E099459FA11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC80D44-D32E-4C0A-9AC2-530C2AD005F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67B88574-F95D-47EC-AD54-FAA9237854CD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="60">
   <si>
     <t>date</t>
   </si>
@@ -153,15 +153,6 @@
     <t xml:space="preserve">En parallèle, je suis téléenquêtrice pour l'Université Lumière Lyon 2. </t>
   </si>
   <si>
-    <t>Je réalise un stage en tant que Chargée de mission Finance participative et Partenariats à la Nef</t>
-  </si>
-  <si>
-    <t>Je réalise mon stage de fin d'étude en qualité de Chargée de mission Projets Spéciaux chez Artisans Angkor.</t>
-  </si>
-  <si>
-    <t>Je travaille de nouveau à la Nef, cette fois en tant que Chargée de développement Finance Participative</t>
-  </si>
-  <si>
     <t>Je travaille sur mon projet professionnel au sein du programme Activ'Projet.</t>
   </si>
   <si>
@@ -237,6 +228,18 @@
   </si>
   <si>
     <t>Je suis Data Scientist au Pôle R&amp;D d'Enoptea, une entreprise innovante dans le secteur de l'énergie.</t>
+  </si>
+  <si>
+    <t>Je réalise un stage en tant que Chargée de projet Innovation à la Nef</t>
+  </si>
+  <si>
+    <t>Je réalise mon stage de fin d'étude en qualité de Chargée de projet Innovation chez Artisans Angkor.</t>
+  </si>
+  <si>
+    <t>Je travaille de nouveau à la Nef, cette fois en tant que Chargée de projet Innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'exerce la fonction d'Attachée Territoriale Politique médico-sociale locale au Département du Rhône. </t>
   </si>
 </sst>
 </file>
@@ -641,8 +644,8 @@
   <dimension ref="A1:W109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +731,7 @@
         <v>42186</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -795,10 +798,10 @@
         <v>42217</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -862,10 +865,10 @@
         <v>42248</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -929,10 +932,10 @@
         <v>42278</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -996,10 +999,10 @@
         <v>42309</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -1063,10 +1066,10 @@
         <v>42339</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -1130,10 +1133,10 @@
         <v>42370</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -1197,10 +1200,10 @@
         <v>42401</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1264,10 +1267,10 @@
         <v>42430</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -1331,10 +1334,10 @@
         <v>42461</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -1398,10 +1401,10 @@
         <v>42491</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1465,10 +1468,10 @@
         <v>42522</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -1532,10 +1535,10 @@
         <v>42552</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -1599,10 +1602,10 @@
         <v>42583</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1666,10 +1669,10 @@
         <v>42614</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1737,10 +1740,10 @@
         <v>42644</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1808,10 +1811,10 @@
         <v>42675</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1879,10 +1882,10 @@
         <v>42705</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -1950,10 +1953,10 @@
         <v>42736</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -2021,10 +2024,10 @@
         <v>42767</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -2092,10 +2095,10 @@
         <v>42795</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -2163,10 +2166,10 @@
         <v>42826</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -2234,10 +2237,10 @@
         <v>42856</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -2305,10 +2308,10 @@
         <v>42887</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -2376,10 +2379,10 @@
         <v>42917</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -2447,10 +2450,10 @@
         <v>42948</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -2518,10 +2521,10 @@
         <v>42979</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -2587,10 +2590,10 @@
         <v>43009</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -2656,10 +2659,10 @@
         <v>43040</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -2725,10 +2728,10 @@
         <v>43070</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -2794,10 +2797,10 @@
         <v>43101</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
@@ -2863,10 +2866,10 @@
         <v>43132</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -2932,10 +2935,10 @@
         <v>43160</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
@@ -3001,10 +3004,10 @@
         <v>43191</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>29</v>
@@ -3070,10 +3073,10 @@
         <v>43221</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
@@ -3139,10 +3142,10 @@
         <v>43252</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
         <v>29</v>
@@ -3208,10 +3211,10 @@
         <v>43282</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
         <v>29</v>
@@ -3277,10 +3280,10 @@
         <v>43313</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
@@ -3346,10 +3349,10 @@
         <v>43344</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
@@ -3417,10 +3420,10 @@
         <v>43374</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
@@ -3488,10 +3491,10 @@
         <v>43405</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
         <v>30</v>
@@ -3559,10 +3562,10 @@
         <v>43435</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
         <v>30</v>
@@ -3630,10 +3633,10 @@
         <v>43466</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -3701,10 +3704,10 @@
         <v>43497</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
         <v>30</v>
@@ -3772,10 +3775,10 @@
         <v>43525</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
         <v>30</v>
@@ -3843,16 +3846,16 @@
         <v>43556</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">+I+F47:H88</f>
@@ -3915,16 +3918,16 @@
         <v>43586</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3986,16 +3989,16 @@
         <v>43617</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4057,16 +4060,16 @@
         <v>43647</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4128,16 +4131,16 @@
         <v>43678</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4199,16 +4202,16 @@
         <v>43709</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4270,10 +4273,10 @@
         <v>43739</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -4337,10 +4340,10 @@
         <v>43770</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -4404,10 +4407,10 @@
         <v>43800</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -4471,16 +4474,16 @@
         <v>43831</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4542,16 +4545,16 @@
         <v>43862</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4613,16 +4616,16 @@
         <v>43891</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -4684,16 +4687,16 @@
         <v>43922</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4755,16 +4758,16 @@
         <v>43952</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4826,16 +4829,16 @@
         <v>43983</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4897,16 +4900,16 @@
         <v>44013</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4968,16 +4971,16 @@
         <v>44044</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5039,16 +5042,16 @@
         <v>44075</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5110,10 +5113,10 @@
         <v>44105</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -5177,10 +5180,10 @@
         <v>44136</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -5244,10 +5247,10 @@
         <v>44166</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
@@ -5311,10 +5314,10 @@
         <v>44197</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -5378,10 +5381,10 @@
         <v>44228</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -5445,10 +5448,10 @@
         <v>44256</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -5512,10 +5515,10 @@
         <v>44287</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -5579,10 +5582,10 @@
         <v>44317</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -5646,10 +5649,10 @@
         <v>44348</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -5713,10 +5716,10 @@
         <v>44378</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -5780,10 +5783,10 @@
         <v>44409</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -5847,10 +5850,10 @@
         <v>44440</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -5914,10 +5917,10 @@
         <v>44470</v>
       </c>
       <c r="B77" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -5981,10 +5984,10 @@
         <v>44501</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
@@ -6048,10 +6051,10 @@
         <v>44531</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -6115,10 +6118,10 @@
         <v>44562</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
@@ -6182,10 +6185,10 @@
         <v>44593</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
@@ -6249,10 +6252,10 @@
         <v>44621</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
@@ -6316,10 +6319,10 @@
         <v>44652</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -6383,10 +6386,10 @@
         <v>44682</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
@@ -6450,10 +6453,10 @@
         <v>44713</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -6517,10 +6520,10 @@
         <v>44743</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
@@ -6584,10 +6587,10 @@
         <v>44774</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -6651,10 +6654,10 @@
         <v>44805</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
@@ -6718,16 +6721,16 @@
         <v>44835</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" t="s">
         <v>40</v>
-      </c>
-      <c r="E89" t="s">
-        <v>43</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6789,16 +6792,16 @@
         <v>44866</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" t="s">
         <v>40</v>
-      </c>
-      <c r="E90" t="s">
-        <v>43</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6860,16 +6863,16 @@
         <v>44896</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" t="s">
         <v>40</v>
-      </c>
-      <c r="E91" t="s">
-        <v>43</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6931,16 +6934,16 @@
         <v>44927</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C92" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" t="s">
         <v>40</v>
-      </c>
-      <c r="E92" t="s">
-        <v>43</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -7002,16 +7005,16 @@
         <v>44958</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" t="s">
         <v>40</v>
-      </c>
-      <c r="E93" t="s">
-        <v>43</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7073,16 +7076,16 @@
         <v>44986</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" t="s">
         <v>40</v>
-      </c>
-      <c r="E94" t="s">
-        <v>43</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7144,16 +7147,16 @@
         <v>45017</v>
       </c>
       <c r="B95" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D95" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" t="s">
         <v>40</v>
-      </c>
-      <c r="E95" t="s">
-        <v>43</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7215,16 +7218,16 @@
         <v>45047</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D96" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" t="s">
         <v>40</v>
-      </c>
-      <c r="E96" t="s">
-        <v>43</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7286,16 +7289,16 @@
         <v>45078</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" t="s">
         <v>40</v>
-      </c>
-      <c r="E97" t="s">
-        <v>43</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7357,16 +7360,16 @@
         <v>45108</v>
       </c>
       <c r="B98" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" t="s">
         <v>40</v>
-      </c>
-      <c r="E98" t="s">
-        <v>43</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7428,16 +7431,16 @@
         <v>45139</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D99" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" t="s">
         <v>40</v>
-      </c>
-      <c r="E99" t="s">
-        <v>43</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7499,16 +7502,16 @@
         <v>45170</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" t="s">
         <v>40</v>
-      </c>
-      <c r="E100" t="s">
-        <v>43</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7570,16 +7573,16 @@
         <v>45200</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D101" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" t="s">
         <v>40</v>
-      </c>
-      <c r="E101" t="s">
-        <v>43</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7641,16 +7644,16 @@
         <v>45231</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D102" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" t="s">
         <v>40</v>
-      </c>
-      <c r="E102" t="s">
-        <v>43</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7712,16 +7715,16 @@
         <v>45261</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D103" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" t="s">
         <v>40</v>
-      </c>
-      <c r="E103" t="s">
-        <v>43</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7783,16 +7786,16 @@
         <v>45292</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D104" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" t="s">
         <v>40</v>
-      </c>
-      <c r="E104" t="s">
-        <v>43</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7854,16 +7857,16 @@
         <v>45323</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D105" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" t="s">
         <v>40</v>
-      </c>
-      <c r="E105" t="s">
-        <v>43</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7925,16 +7928,16 @@
         <v>45352</v>
       </c>
       <c r="B106" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D106" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" t="s">
         <v>40</v>
-      </c>
-      <c r="E106" t="s">
-        <v>43</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7996,16 +7999,16 @@
         <v>45383</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D107" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" t="s">
         <v>40</v>
-      </c>
-      <c r="E107" t="s">
-        <v>43</v>
       </c>
       <c r="F107">
         <v>0</v>

--- a/data_cv_shiny.xlsx
+++ b/data_cv_shiny.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linae\Projects_data\Shiny_resume_11_2023\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC80D44-D32E-4C0A-9AC2-530C2AD005F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF3DE96-758A-40EB-86F6-250869E32127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67B88574-F95D-47EC-AD54-FAA9237854CD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="61">
   <si>
     <t>date</t>
   </si>
@@ -135,9 +135,6 @@
     <t xml:space="preserve">En parallèle, je suis animatrice périscolaire à l'école élémentaire Cavenne. </t>
   </si>
   <si>
-    <t xml:space="preserve">En parallèle, je suis assistante de Direction au sein de l'entreprise Appolon Biotech. </t>
-  </si>
-  <si>
     <t>détail xp1</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Ce diplôme prépare au métier de data scientist via une méthodologie par projet, me permettant d'aborder l'apprentissage automatique supervisé et non supervisé, les modèles de segmentation, régression ou de réduction de données, le deep-learning (NLP et CV), le déploiement de ces modèles sur le web et l'usage des technologies du big Data.</t>
   </si>
   <si>
-    <t>Au sein du Pôle Solidarité et Autonomie Personnes âgées Personnes handicapées, je suis chargée du suivi et contrôle administratif, financier et qualité des établissements sociaux et médico-sociaux du territoire. Je suis par ailleurs responsable de la Business Intelligence via la création de rapports générés automatiquement depuis la base de donnée du logiciel métier Solatis.</t>
-  </si>
-  <si>
     <t>Artisans Angkor est une entreprise sociale franco-cambodgienne spécialisée dans la valorisation de l'artisanat d'art traditionnel cambodgien et la formation professionnelle. J'élabore la stratégie marketing et sa déclinaison opérationnelle pour le service « projets spéciaux ». Je crée des outils internes et tableaux de bord de suivi commerciaux et financier.</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>Je termine mon Master 2 Économie Sociale et Solidaire spécialisé en Entrepreneuriat et Gestion de Projets.</t>
   </si>
   <si>
-    <t xml:space="preserve">J'exerce la fonction d'Attachée Territoriale chargée des relations partenariales au Département du Rhône. </t>
-  </si>
-  <si>
     <t>Les classes préparatoires économiques et commerciales préparent aux concours des écoles supérieures de management, de commerce et de gestion. L'enseignement dispensé offre une formation philosophique, littéraire et linguistique, mais aussi économique et mathématique, de haut niveau. Je suis classée 3ème de ma promotion.</t>
   </si>
   <si>
@@ -239,7 +230,23 @@
     <t>Je travaille de nouveau à la Nef, cette fois en tant que Chargée de projet Innovation</t>
   </si>
   <si>
-    <t xml:space="preserve">J'exerce la fonction d'Attachée Territoriale Politique médico-sociale locale au Département du Rhône. </t>
+    <t>Ma mission est d'identifier le potentiel économique et stratégique des données que vous avez à votre disposition, puis de proposer et développer des solutions innovantes permettant de gagner en productivité, prendre des décisions plus éclairées, ou gagner un avantage concurrentiel sur votre marché.</t>
+  </si>
+  <si>
+    <t>Je suis co-fondatrice de LARCHE IT, société de conseil en Data, IA et Business Intelligence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'exerce la fonction de Chef de projet Data et Business Intelligence au Département du Rhône. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au sein du Pôle Solidarité et Autonomie Personnes âgées Personnes handicapées, je suis chargée de l'analyse de données et de la Business Intelligence : 
+- Automatisation de l’édition des arrêtés de tarification et notes techniques depuis le logiciel Solatis.
+- Automatisation du calcul des prix de journée des établissements médico-sociaux.
+- Refonte et numérisation de la base de données des établissements médico-sociaux et leurs archives documentaires.
+- Analyse financière des établissements dans le cadre du devoir de contrôle et surveillance de l’autorité territoriale.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En parallèle, je suis assistante de Direction au sein de l'entreprise Appolon Bioteck. </t>
   </si>
 </sst>
 </file>
@@ -315,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,8 +332,11 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,9 +355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -385,7 +395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -491,7 +501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -633,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -641,18 +651,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26330B0C-7912-4120-A651-1AA192F9687D}">
-  <dimension ref="A1:W109"/>
+  <dimension ref="A1:W113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27" style="6" customWidth="1"/>
-    <col min="4" max="5" width="27" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27" style="5" customWidth="1"/>
+    <col min="4" max="5" width="27" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -663,13 +673,13 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -731,10 +741,10 @@
         <v>42186</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -798,10 +808,10 @@
         <v>42217</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -865,10 +875,10 @@
         <v>42248</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -932,10 +942,10 @@
         <v>42278</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -999,10 +1009,10 @@
         <v>42309</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -1066,10 +1076,10 @@
         <v>42339</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -1133,10 +1143,10 @@
         <v>42370</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -1200,10 +1210,10 @@
         <v>42401</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1267,10 +1277,10 @@
         <v>42430</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -1334,10 +1344,10 @@
         <v>42461</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -1401,10 +1411,10 @@
         <v>42491</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1468,10 +1478,10 @@
         <v>42522</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -1535,10 +1545,10 @@
         <v>42552</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -1602,10 +1612,10 @@
         <v>42583</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1669,10 +1679,10 @@
         <v>42614</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1740,10 +1750,10 @@
         <v>42644</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1811,10 +1821,10 @@
         <v>42675</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1882,10 +1892,10 @@
         <v>42705</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -1953,10 +1963,10 @@
         <v>42736</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -2024,10 +2034,10 @@
         <v>42767</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -2095,10 +2105,10 @@
         <v>42795</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -2166,10 +2176,10 @@
         <v>42826</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -2237,10 +2247,10 @@
         <v>42856</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -2308,13 +2318,13 @@
         <v>42887</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -2379,13 +2389,13 @@
         <v>42917</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -2450,13 +2460,13 @@
         <v>42948</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -2521,13 +2531,13 @@
         <v>42979</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28"/>
       <c r="F28">
@@ -2590,13 +2600,13 @@
         <v>43009</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29"/>
       <c r="F29">
@@ -2659,13 +2669,13 @@
         <v>43040</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30"/>
       <c r="F30">
@@ -2728,13 +2738,13 @@
         <v>43070</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31"/>
       <c r="F31">
@@ -2797,13 +2807,13 @@
         <v>43101</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32"/>
       <c r="F32">
@@ -2866,13 +2876,13 @@
         <v>43132</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33"/>
       <c r="F33">
@@ -2935,13 +2945,13 @@
         <v>43160</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34"/>
       <c r="F34">
@@ -3004,13 +3014,13 @@
         <v>43191</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35"/>
       <c r="F35">
@@ -3073,13 +3083,13 @@
         <v>43221</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36"/>
       <c r="F36">
@@ -3142,13 +3152,13 @@
         <v>43252</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37"/>
       <c r="F37">
@@ -3211,13 +3221,13 @@
         <v>43282</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38"/>
       <c r="F38">
@@ -3280,13 +3290,13 @@
         <v>43313</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39"/>
       <c r="F39">
@@ -3349,13 +3359,13 @@
         <v>43344</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -3420,13 +3430,13 @@
         <v>43374</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -3491,13 +3501,13 @@
         <v>43405</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -3562,13 +3572,13 @@
         <v>43435</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -3633,13 +3643,13 @@
         <v>43466</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -3704,13 +3714,13 @@
         <v>43497</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -3775,13 +3785,13 @@
         <v>43525</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -3846,16 +3856,16 @@
         <v>43556</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">+I+F47:H88</f>
@@ -3918,16 +3928,16 @@
         <v>43586</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3989,16 +3999,16 @@
         <v>43617</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4060,16 +4070,16 @@
         <v>43647</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4131,16 +4141,16 @@
         <v>43678</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4202,16 +4212,16 @@
         <v>43709</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4273,10 +4283,10 @@
         <v>43739</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -4340,10 +4350,10 @@
         <v>43770</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -4407,10 +4417,10 @@
         <v>43800</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55"/>
       <c r="E55"/>
@@ -4474,16 +4484,16 @@
         <v>43831</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -4545,16 +4555,16 @@
         <v>43862</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -4616,16 +4626,16 @@
         <v>43891</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -4687,16 +4697,16 @@
         <v>43922</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -4758,16 +4768,16 @@
         <v>43952</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -4829,16 +4839,16 @@
         <v>43983</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -4900,16 +4910,16 @@
         <v>44013</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4971,16 +4981,16 @@
         <v>44044</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5042,16 +5052,16 @@
         <v>44075</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5113,10 +5123,10 @@
         <v>44105</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -5180,10 +5190,10 @@
         <v>44136</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -5247,10 +5257,10 @@
         <v>44166</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
@@ -5314,10 +5324,10 @@
         <v>44197</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -5381,10 +5391,10 @@
         <v>44228</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -5448,10 +5458,10 @@
         <v>44256</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -5515,10 +5525,10 @@
         <v>44287</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -5582,10 +5592,10 @@
         <v>44317</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -5649,10 +5659,10 @@
         <v>44348</v>
       </c>
       <c r="B73" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C73" t="s">
-        <v>41</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -5716,10 +5726,10 @@
         <v>44378</v>
       </c>
       <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C74" t="s">
-        <v>41</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -5783,10 +5793,10 @@
         <v>44409</v>
       </c>
       <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C75" t="s">
-        <v>41</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -5850,10 +5860,10 @@
         <v>44440</v>
       </c>
       <c r="B76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C76" t="s">
-        <v>41</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -5917,10 +5927,10 @@
         <v>44470</v>
       </c>
       <c r="B77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C77" t="s">
-        <v>41</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -5984,10 +5994,10 @@
         <v>44501</v>
       </c>
       <c r="B78" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C78" t="s">
-        <v>41</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
@@ -6051,10 +6061,10 @@
         <v>44531</v>
       </c>
       <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C79" t="s">
-        <v>41</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -6118,10 +6128,10 @@
         <v>44562</v>
       </c>
       <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C80" t="s">
-        <v>41</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
@@ -6185,10 +6195,10 @@
         <v>44593</v>
       </c>
       <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C81" t="s">
-        <v>41</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
@@ -6252,10 +6262,10 @@
         <v>44621</v>
       </c>
       <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C82" t="s">
-        <v>41</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
@@ -6319,10 +6329,10 @@
         <v>44652</v>
       </c>
       <c r="B83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C83" t="s">
-        <v>41</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -6386,10 +6396,10 @@
         <v>44682</v>
       </c>
       <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" t="s">
         <v>31</v>
-      </c>
-      <c r="C84" t="s">
-        <v>32</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
@@ -6453,10 +6463,10 @@
         <v>44713</v>
       </c>
       <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
         <v>31</v>
-      </c>
-      <c r="C85" t="s">
-        <v>32</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
@@ -6520,10 +6530,10 @@
         <v>44743</v>
       </c>
       <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
         <v>31</v>
-      </c>
-      <c r="C86" t="s">
-        <v>32</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
@@ -6587,10 +6597,10 @@
         <v>44774</v>
       </c>
       <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
         <v>31</v>
-      </c>
-      <c r="C87" t="s">
-        <v>32</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
@@ -6654,10 +6664,10 @@
         <v>44805</v>
       </c>
       <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" t="s">
         <v>31</v>
-      </c>
-      <c r="C88" t="s">
-        <v>32</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
@@ -6721,16 +6731,16 @@
         <v>44835</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" t="s">
         <v>39</v>
-      </c>
-      <c r="D89" t="s">
-        <v>37</v>
-      </c>
-      <c r="E89" t="s">
-        <v>40</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6792,16 +6802,16 @@
         <v>44866</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" t="s">
         <v>39</v>
-      </c>
-      <c r="D90" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" t="s">
-        <v>40</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6863,16 +6873,16 @@
         <v>44896</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" t="s">
         <v>39</v>
-      </c>
-      <c r="D91" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" t="s">
-        <v>40</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6934,16 +6944,16 @@
         <v>44927</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" t="s">
         <v>39</v>
-      </c>
-      <c r="D92" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" t="s">
-        <v>40</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -7005,16 +7015,16 @@
         <v>44958</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" t="s">
         <v>39</v>
-      </c>
-      <c r="D93" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" t="s">
-        <v>40</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7076,16 +7086,16 @@
         <v>44986</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" t="s">
         <v>39</v>
-      </c>
-      <c r="D94" t="s">
-        <v>37</v>
-      </c>
-      <c r="E94" t="s">
-        <v>40</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7147,16 +7157,16 @@
         <v>45017</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" t="s">
         <v>39</v>
-      </c>
-      <c r="D95" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" t="s">
-        <v>40</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7218,16 +7228,16 @@
         <v>45047</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C96" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="s">
         <v>39</v>
-      </c>
-      <c r="D96" t="s">
-        <v>37</v>
-      </c>
-      <c r="E96" t="s">
-        <v>40</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7289,16 +7299,16 @@
         <v>45078</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" t="s">
         <v>39</v>
-      </c>
-      <c r="D97" t="s">
-        <v>37</v>
-      </c>
-      <c r="E97" t="s">
-        <v>40</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7360,16 +7370,16 @@
         <v>45108</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" t="s">
         <v>39</v>
-      </c>
-      <c r="D98" t="s">
-        <v>37</v>
-      </c>
-      <c r="E98" t="s">
-        <v>40</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7431,16 +7441,16 @@
         <v>45139</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" t="s">
         <v>39</v>
-      </c>
-      <c r="D99" t="s">
-        <v>37</v>
-      </c>
-      <c r="E99" t="s">
-        <v>40</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7502,16 +7512,16 @@
         <v>45170</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" t="s">
         <v>39</v>
-      </c>
-      <c r="D100" t="s">
-        <v>37</v>
-      </c>
-      <c r="E100" t="s">
-        <v>40</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7573,16 +7583,16 @@
         <v>45200</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" t="s">
         <v>39</v>
-      </c>
-      <c r="D101" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" t="s">
-        <v>40</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7644,16 +7654,16 @@
         <v>45231</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C102" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" t="s">
         <v>39</v>
-      </c>
-      <c r="D102" t="s">
-        <v>37</v>
-      </c>
-      <c r="E102" t="s">
-        <v>40</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7715,16 +7725,16 @@
         <v>45261</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C103" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" t="s">
         <v>39</v>
-      </c>
-      <c r="D103" t="s">
-        <v>37</v>
-      </c>
-      <c r="E103" t="s">
-        <v>40</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7786,16 +7796,16 @@
         <v>45292</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" t="s">
         <v>39</v>
-      </c>
-      <c r="D104" t="s">
-        <v>37</v>
-      </c>
-      <c r="E104" t="s">
-        <v>40</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7857,16 +7867,16 @@
         <v>45323</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" t="s">
         <v>39</v>
-      </c>
-      <c r="D105" t="s">
-        <v>37</v>
-      </c>
-      <c r="E105" t="s">
-        <v>40</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7928,16 +7938,16 @@
         <v>45352</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" t="s">
         <v>39</v>
-      </c>
-      <c r="D106" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" t="s">
-        <v>40</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7999,17 +8009,13 @@
         <v>45383</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
-      </c>
-      <c r="D107" t="s">
-        <v>37</v>
-      </c>
-      <c r="E107" t="s">
-        <v>40</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107"/>
       <c r="F107">
         <v>0</v>
       </c>
@@ -8017,10 +8023,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>8</v>
@@ -8066,16 +8072,150 @@
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A108" s="3"/>
-      <c r="B108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
+      <c r="A108" s="3">
+        <v>45414</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108"/>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>8</v>
+      </c>
+      <c r="K108">
+        <v>7</v>
+      </c>
+      <c r="L108">
+        <v>6</v>
+      </c>
+      <c r="M108">
+        <v>5</v>
+      </c>
+      <c r="N108">
+        <v>7</v>
+      </c>
+      <c r="O108">
+        <v>6</v>
+      </c>
+      <c r="P108">
+        <v>7</v>
+      </c>
+      <c r="Q108">
+        <v>8</v>
+      </c>
+      <c r="R108">
+        <v>6</v>
+      </c>
+      <c r="S108">
+        <v>4</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+      <c r="U108">
+        <v>9</v>
+      </c>
+      <c r="V108">
+        <v>5</v>
+      </c>
+      <c r="W108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A109" s="3"/>
-      <c r="B109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
+      <c r="A109" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109"/>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>8</v>
+      </c>
+      <c r="K109">
+        <v>7</v>
+      </c>
+      <c r="L109">
+        <v>6</v>
+      </c>
+      <c r="M109">
+        <v>5</v>
+      </c>
+      <c r="N109">
+        <v>7</v>
+      </c>
+      <c r="O109">
+        <v>6</v>
+      </c>
+      <c r="P109">
+        <v>7</v>
+      </c>
+      <c r="Q109">
+        <v>8</v>
+      </c>
+      <c r="R109">
+        <v>6</v>
+      </c>
+      <c r="S109">
+        <v>4</v>
+      </c>
+      <c r="T109">
+        <v>3</v>
+      </c>
+      <c r="U109">
+        <v>9</v>
+      </c>
+      <c r="V109">
+        <v>5</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data_cv_shiny.xlsx
+++ b/data_cv_shiny.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linae\Projects_data\Shiny_resume_11_2023\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF3DE96-758A-40EB-86F6-250869E32127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D686D01-6798-4D27-8B6B-2BA424DE8E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67B88574-F95D-47EC-AD54-FAA9237854CD}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="61">
   <si>
     <t>date</t>
   </si>
@@ -176,13 +176,7 @@
     <t xml:space="preserve">Le parcours permet d'animer et gérer des organisations de l'économie sociale et solidaire, conduire des projets de politiques publiques territorialisées, accompagner et financer des porteurs/euses de projets de création d'activités, préparer et conduire des interventions économiques et/ou humanitaires au plan international . Je rédige un mémoire de stage intitulé "Pour une finance participative au service des projets de l'Economie Sociale et Solidaire". </t>
   </si>
   <si>
-    <t>Je conçois, développe et maintiens des solutions informatiques, applications et fonctionnalités utilisant la donnée et/ou l'intelligence artificielle en langage R Shiny : j'ai par exemple créé une application de gestion de projets CEE (Certificats d'Economie d'Energie) et une fonctionnalité d'aide à la décision pour l'investissement en rénovation énergétique.</t>
-  </si>
-  <si>
     <t>Ce diplôme prépare au métier de data scientist via une méthodologie par projet, me permettant d'aborder l'apprentissage automatique supervisé et non supervisé, les modèles de segmentation, régression ou de réduction de données, le deep-learning (NLP et CV), le déploiement de ces modèles sur le web et l'usage des technologies du big Data.</t>
-  </si>
-  <si>
-    <t>Artisans Angkor est une entreprise sociale franco-cambodgienne spécialisée dans la valorisation de l'artisanat d'art traditionnel cambodgien et la formation professionnelle. J'élabore la stratégie marketing et sa déclinaison opérationnelle pour le service « projets spéciaux ». Je crée des outils internes et tableaux de bord de suivi commerciaux et financier.</t>
   </si>
   <si>
     <t>La Nef est une banque éthique coopérative située à Vaulx-en-Velin. Je participe à l’élaboration de la stratégie de développement de la plateforme Zeste et crée un appel à projet financier avec abondement.</t>
@@ -230,12 +224,6 @@
     <t>Je travaille de nouveau à la Nef, cette fois en tant que Chargée de projet Innovation</t>
   </si>
   <si>
-    <t>Ma mission est d'identifier le potentiel économique et stratégique des données que vous avez à votre disposition, puis de proposer et développer des solutions innovantes permettant de gagner en productivité, prendre des décisions plus éclairées, ou gagner un avantage concurrentiel sur votre marché.</t>
-  </si>
-  <si>
-    <t>Je suis co-fondatrice de LARCHE IT, société de conseil en Data, IA et Business Intelligence.</t>
-  </si>
-  <si>
     <t xml:space="preserve">J'exerce la fonction de Chef de projet Data et Business Intelligence au Département du Rhône. </t>
   </si>
   <si>
@@ -247,6 +235,18 @@
   </si>
   <si>
     <t xml:space="preserve">En parallèle, je suis assistante de Direction au sein de l'entreprise Appolon Bioteck. </t>
+  </si>
+  <si>
+    <t>Je suis Consultante Data et IA chez LARCHE-IT, société de conseil en SI, Data et IA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je développe les tableaux de bords analytiques automatisés (Excel et PowerBI) pour suivre le développement commercial et marketing d'un nouveau service. Je mène une étude de marché pour le développement de cette nouvelle activité. Artisans Angkor est une entreprise sociale franco-cambodgienne spécialisée dans la valorisation de l'artisanat d'art traditionnel cambodgien et la formation professionnelle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je conçois, développe et maintiens des solutions informatiques, applications et fonctionnalités utilisant la donnée et/ou l'intelligence artificielle en langage R Shiny : j'ai par exemple créé une application de gestion de projets CEE (Certificats d'Economie d'Energie) et une fonctionnalité d'aide à la décision pour l'investissement en rénovation énergétique. J'ai développé un algorithme d'IA permettant de prédire les consommations énergétiques, la facturation et le bilan carbone des clients de l'entreprise. </t>
+  </si>
+  <si>
+    <t>Ma mission est d'identifier le potentiel économique et stratégique des données que vous avez à votre disposition, puis de proposer et développer des solutions innovantes Data et IA permettant de gagner en productivité, prendre des décisions plus éclairées, ou gagner un avantage concurrentiel sur votre marché.</t>
   </si>
 </sst>
 </file>
@@ -322,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -336,7 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,8 +653,8 @@
   <dimension ref="A1:W113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,7 +740,7 @@
         <v>42186</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -808,10 +807,10 @@
         <v>42217</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -875,10 +874,10 @@
         <v>42248</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -942,10 +941,10 @@
         <v>42278</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -1009,10 +1008,10 @@
         <v>42309</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -1076,10 +1075,10 @@
         <v>42339</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -1143,10 +1142,10 @@
         <v>42370</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -1210,10 +1209,10 @@
         <v>42401</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1277,10 +1276,10 @@
         <v>42430</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -1344,10 +1343,10 @@
         <v>42461</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -1411,10 +1410,10 @@
         <v>42491</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1478,10 +1477,10 @@
         <v>42522</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -1545,10 +1544,10 @@
         <v>42552</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -1612,10 +1611,10 @@
         <v>42583</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1679,7 +1678,7 @@
         <v>42614</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -1750,7 +1749,7 @@
         <v>42644</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1821,7 +1820,7 @@
         <v>42675</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -1892,7 +1891,7 @@
         <v>42705</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -1963,7 +1962,7 @@
         <v>42736</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -2034,7 +2033,7 @@
         <v>42767</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -2105,7 +2104,7 @@
         <v>42795</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -2176,7 +2175,7 @@
         <v>42826</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -2247,7 +2246,7 @@
         <v>42856</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -2318,13 +2317,13 @@
         <v>42887</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -2389,13 +2388,13 @@
         <v>42917</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -2460,13 +2459,13 @@
         <v>42948</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -2531,7 +2530,7 @@
         <v>42979</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -2600,7 +2599,7 @@
         <v>43009</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -2669,7 +2668,7 @@
         <v>43040</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -2738,7 +2737,7 @@
         <v>43070</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -2807,7 +2806,7 @@
         <v>43101</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -2876,7 +2875,7 @@
         <v>43132</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -2945,7 +2944,7 @@
         <v>43160</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
@@ -3014,7 +3013,7 @@
         <v>43191</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
@@ -3083,7 +3082,7 @@
         <v>43221</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
@@ -3152,7 +3151,7 @@
         <v>43252</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
@@ -3221,7 +3220,7 @@
         <v>43282</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
@@ -3290,7 +3289,7 @@
         <v>43313</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
@@ -3359,7 +3358,7 @@
         <v>43344</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>34</v>
@@ -3430,7 +3429,7 @@
         <v>43374</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
@@ -3501,7 +3500,7 @@
         <v>43405</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>34</v>
@@ -3572,7 +3571,7 @@
         <v>43435</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
@@ -3643,7 +3642,7 @@
         <v>43466</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
@@ -3714,7 +3713,7 @@
         <v>43497</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
         <v>34</v>
@@ -3785,7 +3784,7 @@
         <v>43525</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>34</v>
@@ -3856,13 +3855,13 @@
         <v>43556</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
         <v>37</v>
@@ -3928,13 +3927,13 @@
         <v>43586</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
         <v>37</v>
@@ -3999,13 +3998,13 @@
         <v>43617</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
         <v>37</v>
@@ -4070,13 +4069,13 @@
         <v>43647</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
         <v>37</v>
@@ -4141,13 +4140,13 @@
         <v>43678</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
         <v>37</v>
@@ -4212,13 +4211,13 @@
         <v>43709</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
         <v>37</v>
@@ -4283,7 +4282,7 @@
         <v>43739</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -4350,7 +4349,7 @@
         <v>43770</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
@@ -4417,7 +4416,7 @@
         <v>43800</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
         <v>35</v>
@@ -4484,13 +4483,13 @@
         <v>43831</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
         <v>35</v>
@@ -4555,13 +4554,13 @@
         <v>43862</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
         <v>35</v>
@@ -4626,13 +4625,13 @@
         <v>43891</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
         <v>35</v>
@@ -4697,13 +4696,13 @@
         <v>43922</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
         <v>35</v>
@@ -4768,13 +4767,13 @@
         <v>43952</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
         <v>35</v>
@@ -4839,13 +4838,13 @@
         <v>43983</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
         <v>35</v>
@@ -4910,13 +4909,13 @@
         <v>44013</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
         <v>35</v>
@@ -4981,13 +4980,13 @@
         <v>44044</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E63" t="s">
         <v>35</v>
@@ -5052,13 +5051,13 @@
         <v>44075</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
         <v>35</v>
@@ -5123,10 +5122,10 @@
         <v>44105</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
@@ -5190,10 +5189,10 @@
         <v>44136</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
@@ -5257,10 +5256,10 @@
         <v>44166</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
@@ -5324,10 +5323,10 @@
         <v>44197</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
@@ -5391,10 +5390,10 @@
         <v>44228</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -5458,10 +5457,10 @@
         <v>44256</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -5525,10 +5524,10 @@
         <v>44287</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -5592,10 +5591,10 @@
         <v>44317</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C72" t="s">
+        <v>55</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -5659,10 +5658,10 @@
         <v>44348</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C73" t="s">
+        <v>55</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -5726,10 +5725,10 @@
         <v>44378</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -5793,10 +5792,10 @@
         <v>44409</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
+        <v>55</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -5860,10 +5859,10 @@
         <v>44440</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -5927,10 +5926,10 @@
         <v>44470</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -5994,10 +5993,10 @@
         <v>44501</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C78" t="s">
+        <v>55</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
@@ -6061,10 +6060,10 @@
         <v>44531</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C79" t="s">
+        <v>55</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
@@ -6128,10 +6127,10 @@
         <v>44562</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
@@ -6195,10 +6194,10 @@
         <v>44593</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>55</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
@@ -6262,10 +6261,10 @@
         <v>44621</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
@@ -6329,10 +6328,10 @@
         <v>44652</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
+        <v>55</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -6731,16 +6730,16 @@
         <v>44835</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D89" t="s">
         <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6802,16 +6801,16 @@
         <v>44866</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C90" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D90" t="s">
         <v>36</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6873,16 +6872,16 @@
         <v>44896</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
         <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6944,16 +6943,16 @@
         <v>44927</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
         <v>36</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -7015,16 +7014,16 @@
         <v>44958</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D93" t="s">
         <v>36</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7086,16 +7085,16 @@
         <v>44986</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C94" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D94" t="s">
         <v>36</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7157,16 +7156,16 @@
         <v>45017</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D95" t="s">
         <v>36</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7228,16 +7227,16 @@
         <v>45047</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D96" t="s">
         <v>36</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7299,16 +7298,16 @@
         <v>45078</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D97" t="s">
         <v>36</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7370,16 +7369,16 @@
         <v>45108</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C98" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D98" t="s">
         <v>36</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7441,16 +7440,16 @@
         <v>45139</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C99" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D99" t="s">
         <v>36</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -7512,16 +7511,16 @@
         <v>45170</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C100" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D100" t="s">
         <v>36</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7583,16 +7582,16 @@
         <v>45200</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D101" t="s">
         <v>36</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7654,16 +7653,16 @@
         <v>45231</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D102" t="s">
         <v>36</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7725,16 +7724,16 @@
         <v>45261</v>
       </c>
       <c r="B103" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D103" t="s">
         <v>36</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7796,16 +7795,16 @@
         <v>45292</v>
       </c>
       <c r="B104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D104" t="s">
         <v>36</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7867,16 +7866,16 @@
         <v>45323</v>
       </c>
       <c r="B105" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D105" t="s">
         <v>36</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7938,16 +7937,16 @@
         <v>45352</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D106" t="s">
         <v>36</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -8012,7 +8011,7 @@
         <v>57</v>
       </c>
       <c r="C107" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107"/>
@@ -8073,13 +8072,13 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="B108" t="s">
         <v>57</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108"/>
@@ -8146,7 +8145,7 @@
         <v>57</v>
       </c>
       <c r="C109" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109"/>
@@ -8206,7 +8205,71 @@
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A110" s="3"/>
+      <c r="A110" s="3">
+        <v>45474</v>
+      </c>
+      <c r="B110" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110"/>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>8</v>
+      </c>
+      <c r="K110">
+        <v>7</v>
+      </c>
+      <c r="L110">
+        <v>6</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>7</v>
+      </c>
+      <c r="O110">
+        <v>6</v>
+      </c>
+      <c r="P110">
+        <v>7</v>
+      </c>
+      <c r="Q110">
+        <v>8</v>
+      </c>
+      <c r="R110">
+        <v>6</v>
+      </c>
+      <c r="S110">
+        <v>4</v>
+      </c>
+      <c r="T110">
+        <v>3</v>
+      </c>
+      <c r="U110">
+        <v>9</v>
+      </c>
+      <c r="V110">
+        <v>5</v>
+      </c>
+      <c r="W110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
